--- a/tests/path_loss_calc_validation.xlsx
+++ b/tests/path_loss_calc_validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\digital_comms\tests\mobile_network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\pysim5g\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA55877-BA49-4F88-9C54-957B425AE651}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638DB506-2B8C-45D6-8AAC-2E2EFD15B538}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="48">
   <si>
     <t>Free space path loss model</t>
   </si>
@@ -344,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -454,7 +455,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -510,8 +510,17 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -519,17 +528,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:S7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,20 +881,20 @@
   <sheetData>
     <row r="1" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="N2" s="68" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="N2" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -931,7 +931,7 @@
       <c r="O3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="70" t="s">
+      <c r="P3" s="66" t="s">
         <v>45</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1137,20 +1137,20 @@
         <f t="shared" si="1"/>
         <v>102.50322003311018</v>
       </c>
-      <c r="N7" s="72">
+      <c r="N7" s="68">
         <v>3.5</v>
       </c>
-      <c r="O7" s="62">
+      <c r="O7" s="61">
         <v>20000</v>
       </c>
       <c r="P7" s="44">
         <f>SQRT(POWER(O7,2)+POWER((Q7-R7),2))</f>
         <v>20000.02030623969</v>
       </c>
-      <c r="Q7" s="62">
+      <c r="Q7" s="61">
         <v>30</v>
       </c>
-      <c r="R7" s="62">
+      <c r="R7" s="61">
         <v>1.5</v>
       </c>
       <c r="S7" s="12">
@@ -1191,12 +1191,12 @@
         <f>32.4+10*LOG10(POWER(((I8-J8)/1000),2)+POWER(H8,2))+20*LOG10(G8)</f>
         <v>104.44134092654426</v>
       </c>
-      <c r="N8" s="73"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="6"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="55"/>
+      <c r="S8" s="54"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1231,12 +1231,12 @@
         <f t="shared" si="1"/>
         <v>91.498937543967116</v>
       </c>
-      <c r="N9" s="73"/>
+      <c r="N9" s="69"/>
       <c r="O9" s="6"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="55"/>
+      <c r="S9" s="54"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1344,7 +1344,7 @@
       <c r="P12" s="36"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="55"/>
+      <c r="S12" s="54"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1384,7 +1384,7 @@
       <c r="P13" s="36"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="55"/>
+      <c r="S13" s="54"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1424,7 +1424,7 @@
       <c r="P14" s="36"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="55"/>
+      <c r="S14" s="54"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1466,7 +1466,7 @@
       <c r="P15" s="36"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="55"/>
+      <c r="S15" s="54"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1507,7 +1507,7 @@
       <c r="P16" s="36"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="55"/>
+      <c r="S16" s="54"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -1547,7 +1547,7 @@
       <c r="P17" s="36"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="55"/>
+      <c r="S17" s="54"/>
     </row>
     <row r="18" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
@@ -1572,7 +1572,7 @@
       <c r="H18" s="11">
         <v>5</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="61">
         <v>30</v>
       </c>
       <c r="J18" s="11">
@@ -1582,37 +1582,37 @@
         <f t="shared" si="1"/>
         <v>114.67900814612173</v>
       </c>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="55"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="54"/>
     </row>
     <row r="19" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
     </row>
     <row r="21" spans="1:20" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1666,7 +1666,7 @@
       <c r="R21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="48"/>
+      <c r="S21" s="47"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1704,18 +1704,18 @@
         <v>1</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="63">
+      <c r="N22" s="62">
         <f>32.4+(20*LOG($D$22))+(10*LOG(POWER($E$22,2)+POWER(($I$22-$H$22),2)/(POWER(10,6))))</f>
         <v>59.167301802519702</v>
       </c>
-      <c r="P22" s="49"/>
+      <c r="P22" s="48"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="17">
         <f>32.4+(20*LOG($D$22))+(10*LOG(POWER($E$22,2)+POWER(($I$22-$H$22),2)/(POWER(10,6))))</f>
         <v>59.167301802519702</v>
       </c>
-      <c r="T22" s="52"/>
+      <c r="T22" s="51"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1759,11 +1759,11 @@
         <v>1</v>
       </c>
       <c r="M23" s="6"/>
-      <c r="N23" s="63">
+      <c r="N23" s="62">
         <f>69.6+26.2*LOG(150)-20*LOG(150/$D$23)-13.82*LOG(MAX(30,$I$23))+(44.9-6.55*LOG(MAX(30,$I$23)))*POWER((LOG($E$23)),$L$23)-$P$23-$Q$23</f>
         <v>81.648657648642157</v>
       </c>
-      <c r="P23" s="49">
+      <c r="P23" s="48">
         <f>(1.1*LOG($D23)-0.7)*MIN(10,$H23)-(1.56*LOG($D23)-0.8)+MAX(0,20*LOG($H23/10))</f>
         <v>-6.999999999999984E-2</v>
       </c>
@@ -1776,7 +1776,7 @@
         <f>69.6+26.2*LOG(150)-20*LOG(150/$D$23)-13.82*LOG(MAX(30,$I$23))+(44.9-6.55*LOG(MAX(30,$I$23)))*POWER((LOG($E$23)),$L$23)-$P$23-$Q$23</f>
         <v>81.648657648642157</v>
       </c>
-      <c r="T23" s="52"/>
+      <c r="T23" s="51"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -1820,11 +1820,11 @@
         <v>1</v>
       </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="63">
+      <c r="N24" s="62">
         <f>69.6+26.2*LOG(150)-20*LOG(150/$D$24)-13.82*LOG(MAX(30,$I$24))+(44.9-6.55*LOG(MAX(30,$I$24)))*POWER((LOG($E$24)),$L$24)-$P$24-$Q$24</f>
         <v>81.648657648642157</v>
       </c>
-      <c r="P24" s="49">
+      <c r="P24" s="48">
         <f t="shared" ref="P24:P53" si="6">(1.1*LOG($D24)-0.7)*MIN(10,$H24)-(1.56*LOG($D24)-0.8)+MAX(0,20*LOG($H24/10))</f>
         <v>-6.999999999999984E-2</v>
       </c>
@@ -1837,7 +1837,7 @@
         <f>69.6+26.2*LOG(150)-20*LOG(150/$D$24)-13.82*LOG(MAX(30,$I$24))+(44.9-6.55*LOG(MAX(30,$I$24)))*POWER((LOG($E$24)),$L$24)-$P$24-$Q$24</f>
         <v>81.648657648642157</v>
       </c>
-      <c r="T24" s="52"/>
+      <c r="T24" s="51"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -1881,11 +1881,11 @@
         <v>1</v>
       </c>
       <c r="M25" s="6"/>
-      <c r="N25" s="63">
+      <c r="N25" s="62">
         <f>69.6+26.2*LOG($D$25)-13.82*LOG(MAX(30,$I$25))+(44.9-6.55*LOG(MAX(30,$I$25)))*POWER((LOG($E$25)),$L$25)-$P$25-$Q$25</f>
         <v>104.13657140285657</v>
       </c>
-      <c r="P25" s="49">
+      <c r="P25" s="48">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
@@ -1898,7 +1898,7 @@
         <f>69.6+26.2*LOG($D$25)-13.82*LOG(MAX(30,$I$25))+(44.9-6.55*LOG(MAX(30,$I$25)))*POWER((LOG($E$25)),$L$25)-$P$25-$Q$25</f>
         <v>104.13657140285657</v>
       </c>
-      <c r="T25" s="52"/>
+      <c r="T25" s="51"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -1942,11 +1942,11 @@
         <v>1</v>
       </c>
       <c r="M26" s="6"/>
-      <c r="N26" s="63">
+      <c r="N26" s="62">
         <f>69.6+26.2*LOG($D$26)-13.82*LOG(MAX(30,$I$26))+(44.9-6.55*LOG(MAX(30,$I$26)))*POWER((LOG($E$26)),$L$26)-$P$26-$Q$26</f>
         <v>104.13657140285657</v>
       </c>
-      <c r="P26" s="49">
+      <c r="P26" s="48">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
@@ -1959,7 +1959,7 @@
         <f>69.6+26.2*LOG($D$26)-13.82*LOG(MAX(30,$I$26))+(44.9-6.55*LOG(MAX(30,$I$26)))*POWER((LOG($E$26)),$L$26)-$P$26-$Q$26</f>
         <v>104.13657140285657</v>
       </c>
-      <c r="T26" s="52"/>
+      <c r="T26" s="51"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -2003,11 +2003,11 @@
         <v>1</v>
       </c>
       <c r="M27" s="6"/>
-      <c r="N27" s="63">
+      <c r="N27" s="62">
         <f>46.3+33.9*LOG($D$27)-13.82*LOG(MAX(30,$I$27))+(44.9-6.55*LOG(MAX(30,$I$27)))*POWER((LOG($E$27)),$L$27)-$P$27-$Q$27</f>
         <v>115.0976552400397</v>
       </c>
-      <c r="P27" s="49">
+      <c r="P27" s="48">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2020,7 +2020,7 @@
         <f>46.3+33.9*LOG($D$27)-13.82*LOG(MAX(30,$I$27))+(44.9-6.55*LOG(MAX(30,$I$27)))*POWER((LOG($E$27)),$L$27)-$P$27-$Q$27</f>
         <v>115.0976552400397</v>
       </c>
-      <c r="T27" s="52"/>
+      <c r="T27" s="51"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -2064,11 +2064,11 @@
         <v>1</v>
       </c>
       <c r="M28" s="6"/>
-      <c r="N28" s="63">
+      <c r="N28" s="62">
         <f>46.3+33.9*LOG($D$28)-13.82*LOG(MAX(30,$I$28))+(44.9-6.55*LOG(MAX(30,$I$28)))*POWER((LOG($E$28)),$L$28)-$P$28-$Q$28</f>
         <v>115.0976552400397</v>
       </c>
-      <c r="P28" s="49">
+      <c r="P28" s="48">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2081,7 +2081,7 @@
         <f>46.3+33.9*LOG($D$28)-13.82*LOG(MAX(30,$I$28))+(44.9-6.55*LOG(MAX(30,$I$28)))*POWER((LOG($E$28)),$L$28)-$P$28-$Q$28</f>
         <v>115.0976552400397</v>
       </c>
-      <c r="T28" s="52"/>
+      <c r="T28" s="51"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -2125,11 +2125,11 @@
         <v>1</v>
       </c>
       <c r="M29" s="6"/>
-      <c r="N29" s="63">
+      <c r="N29" s="62">
         <f>46.3+33.9*LOG(2000)+10*LOG($D$29/2000)-13.82*LOG(MAX(30,$I$29))+(44.9-6.55*LOG(MAX(30,$I$29)))*POWER((LOG($E$29)),$L$29)-$P$29-$Q$29</f>
         <v>116.85470194967921</v>
       </c>
-      <c r="P29" s="49">
+      <c r="P29" s="48">
         <f t="shared" si="6"/>
         <v>4.8999736526052828E-2</v>
       </c>
@@ -2142,7 +2142,7 @@
         <f>46.3+33.9*LOG(2000)+10*LOG($D$29/2000)-13.82*LOG(MAX(30,$I$29))+(44.9-6.55*LOG(MAX(30,$I$29)))*POWER((LOG($E$29)),$L$29)-$P$29-$Q$29</f>
         <v>116.85470194967921</v>
       </c>
-      <c r="T29" s="52"/>
+      <c r="T29" s="51"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -2186,11 +2186,11 @@
         <v>1</v>
       </c>
       <c r="M30" s="6"/>
-      <c r="N30" s="63">
+      <c r="N30" s="62">
         <f>46.3+33.9*LOG(2000)+10*LOG($D$30/2000)-13.82*LOG(MAX(30,$I$30))+(44.9-6.55*LOG(MAX(30,$I$30)))*POWER((LOG($E$30)),$L$30)-$P$30-$Q$30</f>
         <v>116.85470194967921</v>
       </c>
-      <c r="P30" s="49">
+      <c r="P30" s="48">
         <f t="shared" si="6"/>
         <v>4.8999736526052828E-2</v>
       </c>
@@ -2203,7 +2203,7 @@
         <f>46.3+33.9*LOG(2000)+10*LOG($D$30/2000)-13.82*LOG(MAX(30,$I$30))+(44.9-6.55*LOG(MAX(30,$I$30)))*POWER((LOG($E$30)),$L$30)-$P$30-$Q$30</f>
         <v>116.85470194967921</v>
       </c>
-      <c r="T30" s="52"/>
+      <c r="T30" s="51"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -2247,11 +2247,11 @@
         <v>1</v>
       </c>
       <c r="M31" s="6"/>
-      <c r="N31" s="63">
+      <c r="N31" s="62">
         <f>$S$25-2*POWER((LOG((MIN(MAX(150,$D$31),2000))/28)),2)-5.4</f>
         <v>94.49709568389251</v>
       </c>
-      <c r="P31" s="49">
+      <c r="P31" s="48">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
@@ -2264,7 +2264,7 @@
         <f>$S$25-2*POWER((LOG((MIN(MAX(150,$D$31),2000))/28)),2)-5.4</f>
         <v>94.49709568389251</v>
       </c>
-      <c r="T31" s="52"/>
+      <c r="T31" s="51"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -2308,11 +2308,11 @@
         <v>1</v>
       </c>
       <c r="M32" s="6"/>
-      <c r="N32" s="63">
+      <c r="N32" s="62">
         <f>$S$26-2*POWER((LOG((MIN(MAX(150,$D$32),2000))/28)),2)-5.4</f>
         <v>94.49709568389251</v>
       </c>
-      <c r="P32" s="49">
+      <c r="P32" s="48">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
@@ -2325,7 +2325,7 @@
         <f>$S$26-2*POWER((LOG((MIN(MAX(150,$D$32),2000))/28)),2)-5.4</f>
         <v>94.49709568389251</v>
       </c>
-      <c r="T32" s="52"/>
+      <c r="T32" s="51"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -2369,11 +2369,11 @@
         <v>1</v>
       </c>
       <c r="M33" s="6"/>
-      <c r="N33" s="63">
+      <c r="N33" s="62">
         <f>$S$36-2*POWER((LOG((MIN(MAX(150,$D$33),2000))/28)),2)-5.4</f>
         <v>108.5144750990882</v>
       </c>
-      <c r="P33" s="49">
+      <c r="P33" s="48">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
@@ -2386,7 +2386,7 @@
         <f>$S$36-2*POWER((LOG((MIN(MAX(150,$D$33),2000))/28)),2)-5.4</f>
         <v>108.5144750990882</v>
       </c>
-      <c r="T33" s="52"/>
+      <c r="T33" s="51"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -2430,11 +2430,11 @@
         <v>1</v>
       </c>
       <c r="M34" s="6"/>
-      <c r="N34" s="63">
+      <c r="N34" s="62">
         <f>$S$37-2*POWER((LOG((MIN(MAX(150,$D$34),2000))/28)),2)-5.4</f>
         <v>108.5144750990882</v>
       </c>
-      <c r="P34" s="49">
+      <c r="P34" s="48">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
@@ -2447,7 +2447,7 @@
         <f>$S$37-2*POWER((LOG((MIN(MAX(150,$D$34),2000))/28)),2)-5.4</f>
         <v>108.5144750990882</v>
       </c>
-      <c r="T34" s="52"/>
+      <c r="T34" s="51"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -2491,11 +2491,11 @@
         <v>1</v>
       </c>
       <c r="M35" s="6"/>
-      <c r="N35" s="63">
+      <c r="N35" s="62">
         <f>$S$27-4.78*POWER(LOG(   MIN( MAX(150, $D$35),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$35),2000))-40.94</f>
         <v>83.17410064432147</v>
       </c>
-      <c r="P35" s="49">
+      <c r="P35" s="48">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2508,131 +2508,131 @@
         <f>$S$27-4.78*POWER(LOG(   MIN( MAX(150, $D$35),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$35),2000))-40.94</f>
         <v>83.17410064432147</v>
       </c>
-      <c r="T35" s="52"/>
+      <c r="T35" s="51"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="57">
-        <v>1</v>
-      </c>
-      <c r="D36" s="57">
+      <c r="C36" s="56">
+        <v>1</v>
+      </c>
+      <c r="D36" s="56">
         <v>800</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="56">
         <v>0.5</v>
       </c>
-      <c r="F36" s="57">
-        <v>20</v>
-      </c>
-      <c r="G36" s="57">
-        <v>1.5</v>
-      </c>
-      <c r="H36" s="57">
+      <c r="F36" s="56">
+        <v>20</v>
+      </c>
+      <c r="G36" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="H36" s="56">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="I36" s="57">
+      <c r="I36" s="56">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J36" s="58">
+      <c r="J36" s="57">
         <f t="shared" si="4"/>
         <v>1.1278098829275329E-2</v>
       </c>
-      <c r="K36" s="58">
+      <c r="K36" s="57">
         <f t="shared" si="5"/>
         <v>-3.5218251811136252</v>
       </c>
-      <c r="L36" s="57">
-        <v>1</v>
-      </c>
-      <c r="M36" s="57"/>
-      <c r="N36" s="64">
+      <c r="L36" s="56">
+        <v>1</v>
+      </c>
+      <c r="M36" s="56"/>
+      <c r="N36" s="63">
         <f>69.6+26.2*LOG($D$36)-13.82*LOG(MAX(30,$I$36))+(44.9-6.55*LOG(MAX(30,$I$36)))*POWER((LOG($E$36)),$L$36)-$P$36-$Q$36</f>
         <v>118.15395081805227</v>
       </c>
-      <c r="O36" s="60"/>
-      <c r="P36" s="61">
+      <c r="O36" s="59"/>
+      <c r="P36" s="60">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
-      <c r="Q36" s="58">
+      <c r="Q36" s="57">
         <f t="shared" si="7"/>
         <v>-3.5218251811136252</v>
       </c>
-      <c r="R36" s="58"/>
-      <c r="S36" s="59">
+      <c r="R36" s="57"/>
+      <c r="S36" s="58">
         <f>69.6+26.2*LOG($D$36)-13.82*LOG(MAX(30,$I$36))+(44.9-6.55*LOG(MAX(30,$I$36)))*POWER((LOG($E$36)),$L$36)-$P$36-$Q$36</f>
         <v>118.15395081805227</v>
       </c>
-      <c r="T36" s="52"/>
+      <c r="T36" s="51"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="56">
         <v>0</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="56">
         <v>800</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="56">
         <v>0.5</v>
       </c>
-      <c r="F37" s="57">
-        <v>20</v>
-      </c>
-      <c r="G37" s="57">
-        <v>1.5</v>
-      </c>
-      <c r="H37" s="57">
+      <c r="F37" s="56">
+        <v>20</v>
+      </c>
+      <c r="G37" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="H37" s="56">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="56">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J37" s="58">
+      <c r="J37" s="57">
         <f t="shared" si="4"/>
         <v>1.1278098829275329E-2</v>
       </c>
-      <c r="K37" s="58">
+      <c r="K37" s="57">
         <f t="shared" si="5"/>
         <v>-3.5218251811136252</v>
       </c>
-      <c r="L37" s="57">
-        <v>1</v>
-      </c>
-      <c r="M37" s="57"/>
-      <c r="N37" s="64">
+      <c r="L37" s="56">
+        <v>1</v>
+      </c>
+      <c r="M37" s="56"/>
+      <c r="N37" s="63">
         <f>69.6+26.2*LOG($D$37)-13.82*LOG(MAX(30,$I$37))+(44.9-6.55*LOG(MAX(30,$I$37)))*POWER((LOG($E$37)),$L$37)-$P$37-$Q$37</f>
         <v>118.15395081805227</v>
       </c>
-      <c r="O37" s="60"/>
-      <c r="P37" s="61">
+      <c r="O37" s="59"/>
+      <c r="P37" s="60">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
-      <c r="Q37" s="58">
+      <c r="Q37" s="57">
         <f t="shared" si="7"/>
         <v>-3.5218251811136252</v>
       </c>
-      <c r="R37" s="58"/>
-      <c r="S37" s="59">
+      <c r="R37" s="57"/>
+      <c r="S37" s="58">
         <f>69.6+26.2*LOG($D$37)-13.82*LOG(MAX(30,$I$37))+(44.9-6.55*LOG(MAX(30,$I$37)))*POWER((LOG($E$37)),$L$37)-$P$37-$Q$37</f>
         <v>118.15395081805227</v>
       </c>
-      <c r="T37" s="52"/>
+      <c r="T37" s="51"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -2676,11 +2676,11 @@
         <v>1</v>
       </c>
       <c r="M38" s="6"/>
-      <c r="N38" s="63">
+      <c r="N38" s="62">
         <f>46.3+33.9*LOG($D$38)-13.82*LOG(MAX(30,$I$38))+(44.9-6.55*LOG(MAX(30,$I$38)))*POWER((LOG($E$38)),$L$38)-$P$38-$Q$38</f>
         <v>129.11503465523538</v>
       </c>
-      <c r="P38" s="49">
+      <c r="P38" s="48">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2693,7 +2693,7 @@
         <f>46.3+33.9*LOG($D$38)-13.82*LOG(MAX(30,$I$38))+(44.9-6.55*LOG(MAX(30,$I$38)))*POWER((LOG($E$38)),$L$38)-$P$38-$Q$38</f>
         <v>129.11503465523538</v>
       </c>
-      <c r="T38" s="52"/>
+      <c r="T38" s="51"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -2737,11 +2737,11 @@
         <v>1</v>
       </c>
       <c r="M39" s="6"/>
-      <c r="N39" s="63">
+      <c r="N39" s="62">
         <f>46.3+33.9*LOG($D$39)-13.82*LOG(MAX(30,$I$39))+(44.9-6.55*LOG(MAX(30,$I$39)))*POWER((LOG($E$39)),$L$39)-$P$39-$Q$39</f>
         <v>129.11503465523538</v>
       </c>
-      <c r="P39" s="49">
+      <c r="P39" s="48">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2754,7 +2754,7 @@
         <f>46.3+33.9*LOG($D$39)-13.82*LOG(MAX(30,$I$39))+(44.9-6.55*LOG(MAX(30,$I$39)))*POWER((LOG($E$39)),$L$39)-$P$39-$Q$39</f>
         <v>129.11503465523538</v>
       </c>
-      <c r="T39" s="52"/>
+      <c r="T39" s="51"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
@@ -2798,11 +2798,11 @@
         <v>1</v>
       </c>
       <c r="M40" s="6"/>
-      <c r="N40" s="63">
+      <c r="N40" s="62">
         <f>32.4+(20*LOG($D$40))+(10*LOG(POWER($E$40,2)+POWER(($I$40-$H$40),2)/(POWER(10,6))))</f>
         <v>77.651600418352942</v>
       </c>
-      <c r="P40" s="49">
+      <c r="P40" s="48">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2815,7 +2815,7 @@
         <f>32.4+(20*LOG($D$40))+(10*LOG(POWER($E$40,2)+POWER(($I$40-$H$40),2)/(POWER(10,6))))</f>
         <v>77.651600418352942</v>
       </c>
-      <c r="T40" s="52"/>
+      <c r="T40" s="51"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
@@ -2859,11 +2859,11 @@
         <v>1</v>
       </c>
       <c r="M41" s="6"/>
-      <c r="N41" s="63">
+      <c r="N41" s="62">
         <f>32.4+(20*LOG($D$41))+(10*LOG(POWER($E$41,2)+POWER(($I$41-$H$41),2)/(POWER(10,6))))</f>
         <v>70.388501403267725</v>
       </c>
-      <c r="P41" s="49">
+      <c r="P41" s="48">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2876,7 +2876,7 @@
         <f>32.4+(20*LOG($D$41))+(10*LOG(POWER($E$41,2)+POWER(($I$41-$H$41),2)/(POWER(10,6))))</f>
         <v>70.388501403267725</v>
       </c>
-      <c r="T41" s="52"/>
+      <c r="T41" s="51"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
@@ -2920,11 +2920,11 @@
         <v>1</v>
       </c>
       <c r="M42" s="6"/>
-      <c r="N42" s="63">
+      <c r="N42" s="62">
         <f>N41+(LOG($E$42)-LOG(0.04))/(LOG(0.1)-LOG(0.04))*($S$40-$S$41)</f>
         <v>76.816446431868741</v>
       </c>
-      <c r="P42" s="49">
+      <c r="P42" s="48">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2937,7 +2937,7 @@
         <f>S41+(LOG($E$42)-LOG(0.04))/(LOG(0.1)-LOG(0.04))*($S$40-$S$41)</f>
         <v>76.816446431868741</v>
       </c>
-      <c r="T42" s="52"/>
+      <c r="T42" s="51"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
@@ -2981,11 +2981,11 @@
         <v>1</v>
       </c>
       <c r="M43" s="6"/>
-      <c r="N43" s="63">
+      <c r="N43" s="62">
         <f>$S$41+(LOG($E$43)-LOG(0.04))/(LOG(0.1)-LOG(0.04))*($S$40-$S$41)</f>
         <v>76.816446431868741</v>
       </c>
-      <c r="P43" s="49">
+      <c r="P43" s="48">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2998,7 +2998,7 @@
         <f>$S$41+(LOG($E$43)-LOG(0.04))/(LOG(0.1)-LOG(0.04))*($S$40-$S$41)</f>
         <v>76.816446431868741</v>
       </c>
-      <c r="T43" s="52"/>
+      <c r="T43" s="51"/>
     </row>
     <row r="44" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
@@ -3042,11 +3042,11 @@
         <v>1</v>
       </c>
       <c r="M44" s="21"/>
-      <c r="N44" s="65">
+      <c r="N44" s="64">
         <f>46.3+33.9*LOG($D$44)-13.82*LOG(MAX(30,$I$44))+(44.9-6.55*LOG(MAX(30,$I$44)))*POWER((LOG($E$44)),$L$44)-$P$44-$Q$44</f>
         <v>164.33989043682161</v>
       </c>
-      <c r="P44" s="49">
+      <c r="P44" s="48">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -3059,7 +3059,7 @@
         <f>46.3+33.9*LOG($D$44)-13.82*LOG(MAX(30,$I$44))+(44.9-6.55*LOG(MAX(30,$I$44)))*POWER((LOG($E$44)),$L$44)-$P$44-$Q$44</f>
         <v>164.33989043682161</v>
       </c>
-      <c r="T44" s="52"/>
+      <c r="T44" s="51"/>
     </row>
     <row r="45" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -3103,11 +3103,11 @@
         <v>1</v>
       </c>
       <c r="M45" s="6"/>
-      <c r="N45" s="63">
+      <c r="N45" s="62">
         <f>$S$44-4.78*POWER(LOG(   MIN( MAX(150, $D$45),2000)),2)+18.33*LOG(MIN(MAX(150,$D$45),2000))-40.94</f>
         <v>132.41633584110338</v>
       </c>
-      <c r="P45" s="49">
+      <c r="P45" s="48">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -3120,7 +3120,7 @@
         <f>$S$44-4.78*POWER(LOG(   MIN( MAX(150, $D$45),2000)),2)+18.33*LOG(MIN(MAX(150,$D$45),2000))-40.94</f>
         <v>132.41633584110338</v>
       </c>
-      <c r="T45" s="52"/>
+      <c r="T45" s="51"/>
     </row>
     <row r="46" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
@@ -3164,11 +3164,11 @@
         <v>1</v>
       </c>
       <c r="M46" s="26"/>
-      <c r="N46" s="63">
+      <c r="N46" s="62">
         <f>69.6+26.2*LOG($D$46)-13.82*LOG(MAX(30,$I$46))+(44.9-6.55*LOG(MAX(30,$I$46)))*POWER(LOG($E$46),$L$46)-$P$46-$Q$46</f>
         <v>173.07211323044163</v>
       </c>
-      <c r="P46" s="49">
+      <c r="P46" s="48">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
@@ -3181,7 +3181,7 @@
         <f>69.6+26.2*LOG($D$46)-13.82*LOG(MAX(30,$I$46))+(44.9-6.55*LOG(MAX(30,$I$46)))*POWER(LOG($E$46),$L$46)-$P$46-$Q$46</f>
         <v>173.07211323044163</v>
       </c>
-      <c r="T46" s="52"/>
+      <c r="T46" s="51"/>
     </row>
     <row r="47" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
@@ -3225,11 +3225,11 @@
         <v>1</v>
       </c>
       <c r="M47" s="26"/>
-      <c r="N47" s="63">
+      <c r="N47" s="62">
         <f>$S$46-4.78*POWER(LOG(   MIN( MAX(150, $D$47),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$47),2000))-40.94</f>
         <v>145.59065424604259</v>
       </c>
-      <c r="P47" s="49">
+      <c r="P47" s="48">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
@@ -3242,7 +3242,7 @@
         <f>$S$46-4.78*POWER(LOG(   MIN( MAX(150, $D$47),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$47),2000))-40.94</f>
         <v>145.59065424604259</v>
       </c>
-      <c r="T47" s="52"/>
+      <c r="T47" s="51"/>
     </row>
     <row r="48" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
@@ -3287,11 +3287,11 @@
         <f>1+(0.14+0.000187*$D48+0.00107*$I48)*POWER(LOG($E48/20),0.8)</f>
         <v>1.0133881968090026</v>
       </c>
-      <c r="N48" s="63">
+      <c r="N48" s="62">
         <f>69.6+26.2*LOG($D$48)-13.82*LOG(MAX(30,$I$48))+(44.9-6.55*LOG(MAX(30,$I$48)))*POWER(LOG($E$48),$R$48)-$P$48-$Q$48</f>
         <v>173.99299545055089</v>
       </c>
-      <c r="P48" s="49">
+      <c r="P48" s="48">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
@@ -3307,7 +3307,7 @@
         <f>69.6+26.2*LOG($D$48)-13.82*LOG(MAX(30,$I$48))+(44.9-6.55*LOG(MAX(30,$I$48)))*POWER(LOG($E$48),$R$48)-$P$48-$Q$48</f>
         <v>173.99299545055089</v>
       </c>
-      <c r="T48" s="52"/>
+      <c r="T48" s="51"/>
     </row>
     <row r="49" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
@@ -3352,11 +3352,11 @@
         <f t="shared" ref="M49:M53" si="8">1+(0.14+0.000187*$D49+0.00107*$I49)*POWER(LOG($E49/20),0.8)</f>
         <v>1.0133881968090026</v>
       </c>
-      <c r="N49" s="63">
+      <c r="N49" s="62">
         <f>$S$48-4.78*POWER(LOG(   MIN( MAX(150, $D$49),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$49),2000))-40.94</f>
         <v>146.51153646615185</v>
       </c>
-      <c r="P49" s="49">
+      <c r="P49" s="48">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
@@ -3372,7 +3372,7 @@
         <f>$S$48-4.78*POWER(LOG(   MIN( MAX(150, $D$49),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$49),2000))-40.94</f>
         <v>146.51153646615185</v>
       </c>
-      <c r="T49" s="52"/>
+      <c r="T49" s="51"/>
     </row>
     <row r="50" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
@@ -3417,11 +3417,11 @@
         <f t="shared" si="8"/>
         <v>1.0451776604355734</v>
       </c>
-      <c r="N50" s="63">
+      <c r="N50" s="62">
         <f>69.6+26.2*LOG($D$50)-13.82*LOG(MAX(30,$I$50))+(44.9-6.55*LOG(MAX(30,$I$50)))*POWER(LOG($E$50),$R$50)-$P$50-$Q$50</f>
         <v>177.23667937644004</v>
       </c>
-      <c r="P50" s="49">
+      <c r="P50" s="48">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
@@ -3437,7 +3437,7 @@
         <f>69.6+26.2*LOG($D$50)-13.82*LOG(MAX(30,$I$50))+(44.9-6.55*LOG(MAX(30,$I$50)))*POWER(LOG($E$50),$R$50)-$P$50-$Q$50</f>
         <v>177.23667937644004</v>
       </c>
-      <c r="T50" s="52"/>
+      <c r="T50" s="51"/>
     </row>
     <row r="51" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
@@ -3482,11 +3482,11 @@
         <f t="shared" si="8"/>
         <v>1.0451776604355734</v>
       </c>
-      <c r="N51" s="63">
+      <c r="N51" s="62">
         <f>$S$50-4.78*POWER(LOG(   MIN( MAX(150, $D$51),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$51),2000))-40.94</f>
         <v>149.755220392041</v>
       </c>
-      <c r="P51" s="49">
+      <c r="P51" s="48">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
@@ -3502,7 +3502,7 @@
         <f>$S$50-4.78*POWER(LOG(   MIN( MAX(150, $D$51),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$51),2000))-40.94</f>
         <v>149.755220392041</v>
       </c>
-      <c r="T51" s="52"/>
+      <c r="T51" s="51"/>
     </row>
     <row r="52" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
@@ -3547,11 +3547,11 @@
         <f t="shared" si="8"/>
         <v>1.1398565785362531</v>
       </c>
-      <c r="N52" s="63">
+      <c r="N52" s="62">
         <f>69.6+26.2*LOG($D$52)-13.82*LOG(MAX(30,$I$52))+(44.9-6.55*LOG(MAX(30,$I$52)))*POWER(LOG($E$52),$R$52)-$P$52-$Q$52</f>
         <v>191.69426118849938</v>
       </c>
-      <c r="P52" s="49">
+      <c r="P52" s="48">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
@@ -3567,7 +3567,7 @@
         <f>69.6+26.2*LOG($D$52)-13.82*LOG(MAX(30,$I$52))+(44.9-6.55*LOG(MAX(30,$I$52)))*POWER(LOG($E$52),$R$52)-$P$52-$Q$52</f>
         <v>191.69426118849938</v>
       </c>
-      <c r="T52" s="52"/>
+      <c r="T52" s="51"/>
     </row>
     <row r="53" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
@@ -3599,11 +3599,11 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J53" s="51">
+      <c r="J53" s="50">
         <f t="shared" si="4"/>
         <v>6.0588236012835139E-3</v>
       </c>
-      <c r="K53" s="51">
+      <c r="K53" s="50">
         <f t="shared" si="5"/>
         <v>-3.5218251811136252</v>
       </c>
@@ -3612,15 +3612,15 @@
         <f t="shared" si="8"/>
         <v>1.1398565785362531</v>
       </c>
-      <c r="N53" s="66">
+      <c r="N53" s="65">
         <f>$S$52-4.78*POWER(LOG(   MIN( MAX(150, $D$53),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$53),2000))-40.94</f>
         <v>164.21280220410034</v>
       </c>
-      <c r="P53" s="50">
+      <c r="P53" s="49">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
-      <c r="Q53" s="51">
+      <c r="Q53" s="50">
         <f t="shared" si="7"/>
         <v>-3.5218251811136252</v>
       </c>
@@ -3632,7 +3632,7 @@
         <f>$S$52-4.78*POWER(LOG(   MIN( MAX(150, $D$53),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$53),2000))-40.94</f>
         <v>164.21280220410034</v>
       </c>
-      <c r="T53" s="52"/>
+      <c r="T53" s="51"/>
     </row>
     <row r="54" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
@@ -3648,29 +3648,29 @@
       <c r="K54" s="16"/>
       <c r="L54" s="25"/>
       <c r="M54" s="26"/>
-      <c r="N54" s="53"/>
+      <c r="N54" s="52"/>
       <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="26"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="51"/>
     </row>
     <row r="55" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
     </row>
     <row r="56" spans="1:20" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
@@ -3801,14 +3801,14 @@
       <c r="B59" s="36"/>
       <c r="C59" s="37">
         <f>(36.7*LOG10(F59)+22.7+26*LOG10(E59/1000000000))</f>
-        <v>135.89796831223907</v>
+        <v>175.50392004218691</v>
       </c>
       <c r="D59" s="38"/>
       <c r="E59" s="39">
         <v>3500000000</v>
       </c>
       <c r="F59" s="36">
-        <v>500</v>
+        <v>6000</v>
       </c>
       <c r="G59" s="36">
         <v>10</v>
@@ -4172,131 +4172,121 @@
       <c r="N67" s="23"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="42">
+      <c r="A68" s="35">
         <f t="shared" si="10"/>
         <v>2450</v>
       </c>
-      <c r="B68" s="43"/>
-      <c r="C68" s="44">
+      <c r="B68" s="36"/>
+      <c r="C68" s="37">
         <f>161.04-7.1*LOG10(J68)+7.5*LOG10(I68)-(24.37-3.7*(I68/G68)^2)*LOG10(G68)+(43.42-3.1*LOG10(G68))*(LOG10(F68)-3)+20*LOG10(E68/1000000000)-(3.2*(LOG10(11.75*M68))^2-4.97)</f>
         <v>121.39259135453526</v>
       </c>
-      <c r="D68" s="45"/>
-      <c r="E68" s="46">
+      <c r="D68" s="38"/>
+      <c r="E68" s="39">
         <v>3500000000</v>
       </c>
-      <c r="F68" s="43">
+      <c r="F68" s="36">
         <v>500</v>
       </c>
-      <c r="G68" s="43">
+      <c r="G68" s="36">
         <v>35</v>
       </c>
-      <c r="H68" s="43" t="s">
+      <c r="H68" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="I68" s="43">
+      <c r="I68" s="36">
         <v>10</v>
       </c>
-      <c r="J68" s="43">
-        <v>20</v>
-      </c>
-      <c r="K68" s="43" t="s">
+      <c r="J68" s="36">
+        <v>20</v>
+      </c>
+      <c r="K68" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="L68" s="43" t="s">
+      <c r="L68" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="M68" s="47">
+      <c r="M68" s="40">
         <v>1.5</v>
       </c>
       <c r="N68" s="23"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f>B72-C72-D72+E72-F72</f>
-        <v>-144.91999999999999</v>
-      </c>
-      <c r="B72">
-        <f>40+20-2</f>
-        <v>58</v>
-      </c>
-      <c r="C72">
-        <v>198.92</v>
-      </c>
-      <c r="D72">
-        <v>4</v>
-      </c>
-      <c r="E72">
-        <v>4</v>
-      </c>
-      <c r="F72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f>B73-C73-D73+E73-F73</f>
-        <v>-145.02000000000001</v>
-      </c>
-      <c r="B73">
-        <f>40+20-2</f>
-        <v>58</v>
-      </c>
-      <c r="C73">
-        <v>199.02</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-      <c r="E73">
-        <v>4</v>
-      </c>
-      <c r="F73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f>B74-C74-D74+E74-F74</f>
-        <v>-163.44</v>
-      </c>
-      <c r="B74">
-        <f>40+20-2</f>
-        <v>58</v>
-      </c>
-      <c r="C74">
-        <v>217.44</v>
-      </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-      <c r="E74">
-        <v>4</v>
-      </c>
-      <c r="F74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f>B75-C75-D75+E75-F75</f>
-        <v>-120.94</v>
-      </c>
-      <c r="B75">
-        <f>40+20-2</f>
-        <v>58</v>
-      </c>
-      <c r="C75">
-        <v>173.94</v>
-      </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-      <c r="E75">
-        <v>5</v>
-      </c>
-      <c r="F75">
-        <v>5</v>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="35">
+        <f t="shared" ref="A69" si="11">4*G69*M69*E69/(300000000)</f>
+        <v>2450</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69" s="37">
+        <f>161.04-7.1*LOG10(J69)+7.5*LOG10(I69)-(24.37-3.7*(I69/G69)^2)*LOG10(G69)+(43.42-3.1*LOG10(G69))*(LOG10(F69)-3)+20*LOG10(E69/1000000000)-(3.2*(LOG10(11.75*M69))^2-4.97)</f>
+        <v>121.39259135453526</v>
+      </c>
+      <c r="D69" s="37"/>
+      <c r="E69" s="39">
+        <v>3500000000</v>
+      </c>
+      <c r="F69" s="36">
+        <v>500</v>
+      </c>
+      <c r="G69" s="36">
+        <v>35</v>
+      </c>
+      <c r="H69" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" s="36">
+        <v>10</v>
+      </c>
+      <c r="J69" s="36">
+        <v>20</v>
+      </c>
+      <c r="K69" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="M69" s="40">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="42">
+        <f t="shared" ref="A70" si="12">4*G70*M70*E70/(300000000)</f>
+        <v>2800</v>
+      </c>
+      <c r="B70" s="43"/>
+      <c r="C70" s="44">
+        <f>161.04-7.1*LOG10(J70)+7.5*LOG10(I70)-(24.37-3.7*(I70/G70)^2)*LOG10(G70)+(43.42-3.1*LOG10(G70))*(LOG10(F70)-3)+20*LOG10(E70/1000000000)-(3.2*(LOG10(11.75*M70))^2-4.97)</f>
+        <v>119.9375500853008</v>
+      </c>
+      <c r="D70" s="44"/>
+      <c r="E70" s="45">
+        <v>3500000000</v>
+      </c>
+      <c r="F70" s="43">
+        <v>500</v>
+      </c>
+      <c r="G70" s="43">
+        <v>40</v>
+      </c>
+      <c r="H70" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" s="43">
+        <v>10</v>
+      </c>
+      <c r="J70" s="43">
+        <v>20</v>
+      </c>
+      <c r="K70" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L70" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="M70" s="46">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -4307,7 +4297,7 @@
     <mergeCell ref="N2:R2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E19">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4321,7 +4311,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K18">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4335,7 +4325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N53">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4349,7 +4339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C68">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4363,7 +4353,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:S18 S4:S5 S8:S9">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4377,7 +4367,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4391,7 +4381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4400,6 +4390,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{A76E5B64-EC84-4773-B866-843530173059}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7F6CFAD9-4C05-45C5-9E69-1064E25BC763}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5A4C893D-8491-447A-8C13-30C518070E92}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4490,6 +4508,32 @@
           </x14:cfRule>
           <xm:sqref>S7</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7F6CFAD9-4C05-45C5-9E69-1064E25BC763}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5A4C893D-8491-447A-8C13-30C518070E92}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C70</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/tests/path_loss_calc_validation.xlsx
+++ b/tests/path_loss_calc_validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\pysim5g\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638DB506-2B8C-45D6-8AAC-2E2EFD15B538}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F09A79-79F3-4017-B0F0-C194E13EB0CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
   <si>
     <t>Free space path loss model</t>
   </si>
@@ -96,72 +96,6 @@
     <t>0.04 &lt;= d &lt; 0.1</t>
   </si>
   <si>
-    <t>breakpoint (d'BP)</t>
-  </si>
-  <si>
-    <t>breakpoint (dBP)</t>
-  </si>
-  <si>
-    <t>PL1</t>
-  </si>
-  <si>
-    <t>PL2</t>
-  </si>
-  <si>
-    <t>freq (Hz)</t>
-  </si>
-  <si>
-    <t>distance (d)</t>
-  </si>
-  <si>
-    <t>ant_height (hBS)</t>
-  </si>
-  <si>
-    <t>ant_type</t>
-  </si>
-  <si>
-    <t>building_height (h)</t>
-  </si>
-  <si>
-    <t>street_width (w)</t>
-  </si>
-  <si>
-    <t>settlement</t>
-  </si>
-  <si>
-    <t>sight_type</t>
-  </si>
-  <si>
-    <t>UE_height (hUT)</t>
-  </si>
-  <si>
-    <t>micro</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>urban</t>
-  </si>
-  <si>
-    <t>los</t>
-  </si>
-  <si>
-    <t>nlos</t>
-  </si>
-  <si>
-    <t>macro</t>
-  </si>
-  <si>
-    <t>suburban</t>
-  </si>
-  <si>
-    <t>rural</t>
-  </si>
-  <si>
-    <t>3GPP E-UTRA</t>
-  </si>
-  <si>
     <t>Extended Hata</t>
   </si>
   <si>
@@ -181,12 +115,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -201,20 +134,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -222,22 +141,6 @@
       <family val="2"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -345,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -436,27 +339,9 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -470,44 +355,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -522,14 +385,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,17 +717,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T70"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
@@ -881,20 +753,13 @@
   <sheetData>
     <row r="1" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="N2" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -925,22 +790,6 @@
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -975,26 +824,6 @@
         <f t="shared" ref="K4:K18" si="1">32.4+10*LOG10(POWER(((I4-J4)/1000),2)+POWER(H4,2))+20*LOG10(G4)</f>
         <v>84.455287181739891</v>
       </c>
-      <c r="N4" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="O4" s="6">
-        <v>1000</v>
-      </c>
-      <c r="P4" s="37">
-        <f>SQRT(POWER(O4,2)+POWER((Q4-R4),2))</f>
-        <v>1000.4060425647178</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>30</v>
-      </c>
-      <c r="R4" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="S4" s="7">
-        <f>32.4+20*LOG10(N4)+30*LOG10(P4)</f>
-        <v>133.28665007461876</v>
-      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -1029,26 +858,6 @@
         <f t="shared" si="1"/>
         <v>96.483281452823618</v>
       </c>
-      <c r="N5" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="O5" s="6">
-        <v>5000</v>
-      </c>
-      <c r="P5" s="37">
-        <f>SQRT(POWER(O5,2)+POWER((Q5-R5),2))</f>
-        <v>5000.0812243402606</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>30</v>
-      </c>
-      <c r="R5" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="S5" s="7">
-        <f>32.4+20*LOG10(N5)+30*LOG10(P5)</f>
-        <v>154.25067266706358</v>
-      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1083,28 +892,8 @@
         <f t="shared" si="1"/>
         <v>100.00461676731632</v>
       </c>
-      <c r="N6" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="6">
-        <v>10000</v>
-      </c>
-      <c r="P6" s="37">
-        <f>SQRT(POWER(O6,2)+POWER((Q6-R6),2))</f>
-        <v>10000.040612417532</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>30</v>
-      </c>
-      <c r="R6" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="S6" s="7">
-        <f>32.4+20*LOG10(N6)+30*LOG10(P6)</f>
-        <v>163.28141380014455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>800</v>
       </c>
@@ -1137,26 +926,6 @@
         <f t="shared" si="1"/>
         <v>102.50322003311018</v>
       </c>
-      <c r="N7" s="68">
-        <v>3.5</v>
-      </c>
-      <c r="O7" s="61">
-        <v>20000</v>
-      </c>
-      <c r="P7" s="44">
-        <f>SQRT(POWER(O7,2)+POWER((Q7-R7),2))</f>
-        <v>20000.02030623969</v>
-      </c>
-      <c r="Q7" s="61">
-        <v>30</v>
-      </c>
-      <c r="R7" s="61">
-        <v>1.5</v>
-      </c>
-      <c r="S7" s="12">
-        <f>32.4+20*LOG10(N7)+30*LOG10(P7)</f>
-        <v>172.31227398525002</v>
-      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -1191,12 +960,6 @@
         <f>32.4+10*LOG10(POWER(((I8-J8)/1000),2)+POWER(H8,2))+20*LOG10(G8)</f>
         <v>104.44134092654426</v>
       </c>
-      <c r="N8" s="69"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="54"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1231,12 +994,12 @@
         <f t="shared" si="1"/>
         <v>91.498937543967116</v>
       </c>
-      <c r="N9" s="69"/>
+      <c r="N9" s="49"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="37"/>
+      <c r="P9" s="33"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="54"/>
+      <c r="S9" s="41"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1341,10 +1104,10 @@
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="36"/>
+      <c r="P12" s="32"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="54"/>
+      <c r="S12" s="41"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1381,10 +1144,10 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="36"/>
+      <c r="P13" s="32"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="54"/>
+      <c r="S13" s="41"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1421,10 +1184,10 @@
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="36"/>
+      <c r="P14" s="32"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="54"/>
+      <c r="S14" s="41"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1463,10 +1226,10 @@
       <c r="M15" s="8"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="36"/>
+      <c r="P15" s="32"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="54"/>
+      <c r="S15" s="41"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1504,10 +1267,10 @@
       <c r="L16" s="9"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="36"/>
+      <c r="P16" s="32"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="54"/>
+      <c r="S16" s="41"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -1544,10 +1307,10 @@
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="36"/>
+      <c r="P17" s="32"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="54"/>
+      <c r="S17" s="41"/>
     </row>
     <row r="18" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
@@ -1572,7 +1335,7 @@
       <c r="H18" s="11">
         <v>5</v>
       </c>
-      <c r="I18" s="61">
+      <c r="I18" s="42">
         <v>30</v>
       </c>
       <c r="J18" s="11">
@@ -1582,37 +1345,37 @@
         <f t="shared" si="1"/>
         <v>114.67900814612173</v>
       </c>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="54"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="41"/>
     </row>
     <row r="19" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
+      <c r="A20" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
     </row>
     <row r="21" spans="1:20" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1666,7 +1429,7 @@
       <c r="R21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="47"/>
+      <c r="S21" s="35"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1704,18 +1467,18 @@
         <v>1</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="62">
+      <c r="N22" s="43">
         <f>32.4+(20*LOG($D$22))+(10*LOG(POWER($E$22,2)+POWER(($I$22-$H$22),2)/(POWER(10,6))))</f>
         <v>59.167301802519702</v>
       </c>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
       <c r="S22" s="17">
         <f>32.4+(20*LOG($D$22))+(10*LOG(POWER($E$22,2)+POWER(($I$22-$H$22),2)/(POWER(10,6))))</f>
         <v>59.167301802519702</v>
       </c>
-      <c r="T22" s="51"/>
+      <c r="T22" s="39"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1759,11 +1522,11 @@
         <v>1</v>
       </c>
       <c r="M23" s="6"/>
-      <c r="N23" s="62">
+      <c r="N23" s="43">
         <f>69.6+26.2*LOG(150)-20*LOG(150/$D$23)-13.82*LOG(MAX(30,$I$23))+(44.9-6.55*LOG(MAX(30,$I$23)))*POWER((LOG($E$23)),$L$23)-$P$23-$Q$23</f>
         <v>81.648657648642157</v>
       </c>
-      <c r="P23" s="48">
+      <c r="P23" s="36">
         <f>(1.1*LOG($D23)-0.7)*MIN(10,$H23)-(1.56*LOG($D23)-0.8)+MAX(0,20*LOG($H23/10))</f>
         <v>-6.999999999999984E-2</v>
       </c>
@@ -1776,7 +1539,7 @@
         <f>69.6+26.2*LOG(150)-20*LOG(150/$D$23)-13.82*LOG(MAX(30,$I$23))+(44.9-6.55*LOG(MAX(30,$I$23)))*POWER((LOG($E$23)),$L$23)-$P$23-$Q$23</f>
         <v>81.648657648642157</v>
       </c>
-      <c r="T23" s="51"/>
+      <c r="T23" s="39"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -1820,11 +1583,11 @@
         <v>1</v>
       </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="62">
+      <c r="N24" s="43">
         <f>69.6+26.2*LOG(150)-20*LOG(150/$D$24)-13.82*LOG(MAX(30,$I$24))+(44.9-6.55*LOG(MAX(30,$I$24)))*POWER((LOG($E$24)),$L$24)-$P$24-$Q$24</f>
         <v>81.648657648642157</v>
       </c>
-      <c r="P24" s="48">
+      <c r="P24" s="36">
         <f t="shared" ref="P24:P53" si="6">(1.1*LOG($D24)-0.7)*MIN(10,$H24)-(1.56*LOG($D24)-0.8)+MAX(0,20*LOG($H24/10))</f>
         <v>-6.999999999999984E-2</v>
       </c>
@@ -1837,7 +1600,7 @@
         <f>69.6+26.2*LOG(150)-20*LOG(150/$D$24)-13.82*LOG(MAX(30,$I$24))+(44.9-6.55*LOG(MAX(30,$I$24)))*POWER((LOG($E$24)),$L$24)-$P$24-$Q$24</f>
         <v>81.648657648642157</v>
       </c>
-      <c r="T24" s="51"/>
+      <c r="T24" s="39"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -1881,11 +1644,11 @@
         <v>1</v>
       </c>
       <c r="M25" s="6"/>
-      <c r="N25" s="62">
+      <c r="N25" s="43">
         <f>69.6+26.2*LOG($D$25)-13.82*LOG(MAX(30,$I$25))+(44.9-6.55*LOG(MAX(30,$I$25)))*POWER((LOG($E$25)),$L$25)-$P$25-$Q$25</f>
         <v>104.13657140285657</v>
       </c>
-      <c r="P25" s="48">
+      <c r="P25" s="36">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
@@ -1898,7 +1661,7 @@
         <f>69.6+26.2*LOG($D$25)-13.82*LOG(MAX(30,$I$25))+(44.9-6.55*LOG(MAX(30,$I$25)))*POWER((LOG($E$25)),$L$25)-$P$25-$Q$25</f>
         <v>104.13657140285657</v>
       </c>
-      <c r="T25" s="51"/>
+      <c r="T25" s="39"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -1942,11 +1705,11 @@
         <v>1</v>
       </c>
       <c r="M26" s="6"/>
-      <c r="N26" s="62">
+      <c r="N26" s="43">
         <f>69.6+26.2*LOG($D$26)-13.82*LOG(MAX(30,$I$26))+(44.9-6.55*LOG(MAX(30,$I$26)))*POWER((LOG($E$26)),$L$26)-$P$26-$Q$26</f>
         <v>104.13657140285657</v>
       </c>
-      <c r="P26" s="48">
+      <c r="P26" s="36">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
@@ -1959,7 +1722,7 @@
         <f>69.6+26.2*LOG($D$26)-13.82*LOG(MAX(30,$I$26))+(44.9-6.55*LOG(MAX(30,$I$26)))*POWER((LOG($E$26)),$L$26)-$P$26-$Q$26</f>
         <v>104.13657140285657</v>
       </c>
-      <c r="T26" s="51"/>
+      <c r="T26" s="39"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -2003,11 +1766,11 @@
         <v>1</v>
       </c>
       <c r="M27" s="6"/>
-      <c r="N27" s="62">
+      <c r="N27" s="43">
         <f>46.3+33.9*LOG($D$27)-13.82*LOG(MAX(30,$I$27))+(44.9-6.55*LOG(MAX(30,$I$27)))*POWER((LOG($E$27)),$L$27)-$P$27-$Q$27</f>
         <v>115.0976552400397</v>
       </c>
-      <c r="P27" s="48">
+      <c r="P27" s="36">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2020,7 +1783,7 @@
         <f>46.3+33.9*LOG($D$27)-13.82*LOG(MAX(30,$I$27))+(44.9-6.55*LOG(MAX(30,$I$27)))*POWER((LOG($E$27)),$L$27)-$P$27-$Q$27</f>
         <v>115.0976552400397</v>
       </c>
-      <c r="T27" s="51"/>
+      <c r="T27" s="39"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -2064,11 +1827,11 @@
         <v>1</v>
       </c>
       <c r="M28" s="6"/>
-      <c r="N28" s="62">
+      <c r="N28" s="43">
         <f>46.3+33.9*LOG($D$28)-13.82*LOG(MAX(30,$I$28))+(44.9-6.55*LOG(MAX(30,$I$28)))*POWER((LOG($E$28)),$L$28)-$P$28-$Q$28</f>
         <v>115.0976552400397</v>
       </c>
-      <c r="P28" s="48">
+      <c r="P28" s="36">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2081,7 +1844,7 @@
         <f>46.3+33.9*LOG($D$28)-13.82*LOG(MAX(30,$I$28))+(44.9-6.55*LOG(MAX(30,$I$28)))*POWER((LOG($E$28)),$L$28)-$P$28-$Q$28</f>
         <v>115.0976552400397</v>
       </c>
-      <c r="T28" s="51"/>
+      <c r="T28" s="39"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -2125,11 +1888,11 @@
         <v>1</v>
       </c>
       <c r="M29" s="6"/>
-      <c r="N29" s="62">
+      <c r="N29" s="43">
         <f>46.3+33.9*LOG(2000)+10*LOG($D$29/2000)-13.82*LOG(MAX(30,$I$29))+(44.9-6.55*LOG(MAX(30,$I$29)))*POWER((LOG($E$29)),$L$29)-$P$29-$Q$29</f>
         <v>116.85470194967921</v>
       </c>
-      <c r="P29" s="48">
+      <c r="P29" s="36">
         <f t="shared" si="6"/>
         <v>4.8999736526052828E-2</v>
       </c>
@@ -2142,7 +1905,7 @@
         <f>46.3+33.9*LOG(2000)+10*LOG($D$29/2000)-13.82*LOG(MAX(30,$I$29))+(44.9-6.55*LOG(MAX(30,$I$29)))*POWER((LOG($E$29)),$L$29)-$P$29-$Q$29</f>
         <v>116.85470194967921</v>
       </c>
-      <c r="T29" s="51"/>
+      <c r="T29" s="39"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -2186,11 +1949,11 @@
         <v>1</v>
       </c>
       <c r="M30" s="6"/>
-      <c r="N30" s="62">
+      <c r="N30" s="43">
         <f>46.3+33.9*LOG(2000)+10*LOG($D$30/2000)-13.82*LOG(MAX(30,$I$30))+(44.9-6.55*LOG(MAX(30,$I$30)))*POWER((LOG($E$30)),$L$30)-$P$30-$Q$30</f>
         <v>116.85470194967921</v>
       </c>
-      <c r="P30" s="48">
+      <c r="P30" s="36">
         <f t="shared" si="6"/>
         <v>4.8999736526052828E-2</v>
       </c>
@@ -2203,7 +1966,7 @@
         <f>46.3+33.9*LOG(2000)+10*LOG($D$30/2000)-13.82*LOG(MAX(30,$I$30))+(44.9-6.55*LOG(MAX(30,$I$30)))*POWER((LOG($E$30)),$L$30)-$P$30-$Q$30</f>
         <v>116.85470194967921</v>
       </c>
-      <c r="T30" s="51"/>
+      <c r="T30" s="39"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -2247,11 +2010,11 @@
         <v>1</v>
       </c>
       <c r="M31" s="6"/>
-      <c r="N31" s="62">
+      <c r="N31" s="43">
         <f>$S$25-2*POWER((LOG((MIN(MAX(150,$D$31),2000))/28)),2)-5.4</f>
         <v>94.49709568389251</v>
       </c>
-      <c r="P31" s="48">
+      <c r="P31" s="36">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
@@ -2264,7 +2027,7 @@
         <f>$S$25-2*POWER((LOG((MIN(MAX(150,$D$31),2000))/28)),2)-5.4</f>
         <v>94.49709568389251</v>
       </c>
-      <c r="T31" s="51"/>
+      <c r="T31" s="39"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -2308,11 +2071,11 @@
         <v>1</v>
       </c>
       <c r="M32" s="6"/>
-      <c r="N32" s="62">
+      <c r="N32" s="43">
         <f>$S$26-2*POWER((LOG((MIN(MAX(150,$D$32),2000))/28)),2)-5.4</f>
         <v>94.49709568389251</v>
       </c>
-      <c r="P32" s="48">
+      <c r="P32" s="36">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
@@ -2325,7 +2088,7 @@
         <f>$S$26-2*POWER((LOG((MIN(MAX(150,$D$32),2000))/28)),2)-5.4</f>
         <v>94.49709568389251</v>
       </c>
-      <c r="T32" s="51"/>
+      <c r="T32" s="39"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -2369,11 +2132,11 @@
         <v>1</v>
       </c>
       <c r="M33" s="6"/>
-      <c r="N33" s="62">
+      <c r="N33" s="43">
         <f>$S$36-2*POWER((LOG((MIN(MAX(150,$D$33),2000))/28)),2)-5.4</f>
         <v>108.5144750990882</v>
       </c>
-      <c r="P33" s="48">
+      <c r="P33" s="36">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
@@ -2386,7 +2149,7 @@
         <f>$S$36-2*POWER((LOG((MIN(MAX(150,$D$33),2000))/28)),2)-5.4</f>
         <v>108.5144750990882</v>
       </c>
-      <c r="T33" s="51"/>
+      <c r="T33" s="39"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -2430,11 +2193,11 @@
         <v>1</v>
       </c>
       <c r="M34" s="6"/>
-      <c r="N34" s="62">
+      <c r="N34" s="43">
         <f>$S$37-2*POWER((LOG((MIN(MAX(150,$D$34),2000))/28)),2)-5.4</f>
         <v>108.5144750990882</v>
       </c>
-      <c r="P34" s="48">
+      <c r="P34" s="36">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
@@ -2447,7 +2210,7 @@
         <f>$S$37-2*POWER((LOG((MIN(MAX(150,$D$34),2000))/28)),2)-5.4</f>
         <v>108.5144750990882</v>
       </c>
-      <c r="T34" s="51"/>
+      <c r="T34" s="39"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -2491,11 +2254,11 @@
         <v>1</v>
       </c>
       <c r="M35" s="6"/>
-      <c r="N35" s="62">
+      <c r="N35" s="43">
         <f>$S$27-4.78*POWER(LOG(   MIN( MAX(150, $D$35),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$35),2000))-40.94</f>
         <v>83.17410064432147</v>
       </c>
-      <c r="P35" s="48">
+      <c r="P35" s="36">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2508,131 +2271,131 @@
         <f>$S$27-4.78*POWER(LOG(   MIN( MAX(150, $D$35),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$35),2000))-40.94</f>
         <v>83.17410064432147</v>
       </c>
-      <c r="T35" s="51"/>
+      <c r="T35" s="39"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="56">
-        <v>1</v>
-      </c>
-      <c r="D36" s="56">
+      <c r="C36" s="52">
+        <v>1</v>
+      </c>
+      <c r="D36" s="52">
         <v>800</v>
       </c>
-      <c r="E36" s="56">
+      <c r="E36" s="52">
         <v>0.5</v>
       </c>
-      <c r="F36" s="56">
-        <v>20</v>
-      </c>
-      <c r="G36" s="56">
-        <v>1.5</v>
-      </c>
-      <c r="H36" s="56">
+      <c r="F36" s="52">
+        <v>20</v>
+      </c>
+      <c r="G36" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="H36" s="52">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="I36" s="56">
+      <c r="I36" s="52">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J36" s="57">
+      <c r="J36" s="53">
         <f t="shared" si="4"/>
         <v>1.1278098829275329E-2</v>
       </c>
-      <c r="K36" s="57">
+      <c r="K36" s="53">
         <f t="shared" si="5"/>
         <v>-3.5218251811136252</v>
       </c>
-      <c r="L36" s="56">
-        <v>1</v>
-      </c>
-      <c r="M36" s="56"/>
-      <c r="N36" s="63">
+      <c r="L36" s="52">
+        <v>1</v>
+      </c>
+      <c r="M36" s="52"/>
+      <c r="N36" s="43">
         <f>69.6+26.2*LOG($D$36)-13.82*LOG(MAX(30,$I$36))+(44.9-6.55*LOG(MAX(30,$I$36)))*POWER((LOG($E$36)),$L$36)-$P$36-$Q$36</f>
         <v>118.15395081805227</v>
       </c>
-      <c r="O36" s="59"/>
-      <c r="P36" s="60">
+      <c r="O36" s="9"/>
+      <c r="P36" s="54">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
-      <c r="Q36" s="57">
+      <c r="Q36" s="53">
         <f t="shared" si="7"/>
         <v>-3.5218251811136252</v>
       </c>
-      <c r="R36" s="57"/>
-      <c r="S36" s="58">
+      <c r="R36" s="53"/>
+      <c r="S36" s="55">
         <f>69.6+26.2*LOG($D$36)-13.82*LOG(MAX(30,$I$36))+(44.9-6.55*LOG(MAX(30,$I$36)))*POWER((LOG($E$36)),$L$36)-$P$36-$Q$36</f>
         <v>118.15395081805227</v>
       </c>
-      <c r="T36" s="51"/>
+      <c r="T36" s="39"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="52">
         <v>0</v>
       </c>
-      <c r="D37" s="56">
+      <c r="D37" s="52">
         <v>800</v>
       </c>
-      <c r="E37" s="56">
+      <c r="E37" s="52">
         <v>0.5</v>
       </c>
-      <c r="F37" s="56">
-        <v>20</v>
-      </c>
-      <c r="G37" s="56">
-        <v>1.5</v>
-      </c>
-      <c r="H37" s="56">
+      <c r="F37" s="52">
+        <v>20</v>
+      </c>
+      <c r="G37" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="H37" s="52">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="I37" s="56">
+      <c r="I37" s="52">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J37" s="57">
+      <c r="J37" s="53">
         <f t="shared" si="4"/>
         <v>1.1278098829275329E-2</v>
       </c>
-      <c r="K37" s="57">
+      <c r="K37" s="53">
         <f t="shared" si="5"/>
         <v>-3.5218251811136252</v>
       </c>
-      <c r="L37" s="56">
-        <v>1</v>
-      </c>
-      <c r="M37" s="56"/>
-      <c r="N37" s="63">
+      <c r="L37" s="52">
+        <v>1</v>
+      </c>
+      <c r="M37" s="52"/>
+      <c r="N37" s="43">
         <f>69.6+26.2*LOG($D$37)-13.82*LOG(MAX(30,$I$37))+(44.9-6.55*LOG(MAX(30,$I$37)))*POWER((LOG($E$37)),$L$37)-$P$37-$Q$37</f>
         <v>118.15395081805227</v>
       </c>
-      <c r="O37" s="59"/>
-      <c r="P37" s="60">
+      <c r="O37" s="9"/>
+      <c r="P37" s="54">
         <f t="shared" si="6"/>
         <v>1.1278098829275329E-2</v>
       </c>
-      <c r="Q37" s="57">
+      <c r="Q37" s="53">
         <f t="shared" si="7"/>
         <v>-3.5218251811136252</v>
       </c>
-      <c r="R37" s="57"/>
-      <c r="S37" s="58">
+      <c r="R37" s="53"/>
+      <c r="S37" s="55">
         <f>69.6+26.2*LOG($D$37)-13.82*LOG(MAX(30,$I$37))+(44.9-6.55*LOG(MAX(30,$I$37)))*POWER((LOG($E$37)),$L$37)-$P$37-$Q$37</f>
         <v>118.15395081805227</v>
       </c>
-      <c r="T37" s="51"/>
+      <c r="T37" s="39"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -2676,11 +2439,11 @@
         <v>1</v>
       </c>
       <c r="M38" s="6"/>
-      <c r="N38" s="62">
+      <c r="N38" s="43">
         <f>46.3+33.9*LOG($D$38)-13.82*LOG(MAX(30,$I$38))+(44.9-6.55*LOG(MAX(30,$I$38)))*POWER((LOG($E$38)),$L$38)-$P$38-$Q$38</f>
         <v>129.11503465523538</v>
       </c>
-      <c r="P38" s="48">
+      <c r="P38" s="36">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2693,7 +2456,7 @@
         <f>46.3+33.9*LOG($D$38)-13.82*LOG(MAX(30,$I$38))+(44.9-6.55*LOG(MAX(30,$I$38)))*POWER((LOG($E$38)),$L$38)-$P$38-$Q$38</f>
         <v>129.11503465523538</v>
       </c>
-      <c r="T38" s="51"/>
+      <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -2737,11 +2500,11 @@
         <v>1</v>
       </c>
       <c r="M39" s="6"/>
-      <c r="N39" s="62">
+      <c r="N39" s="43">
         <f>46.3+33.9*LOG($D$39)-13.82*LOG(MAX(30,$I$39))+(44.9-6.55*LOG(MAX(30,$I$39)))*POWER((LOG($E$39)),$L$39)-$P$39-$Q$39</f>
         <v>129.11503465523538</v>
       </c>
-      <c r="P39" s="48">
+      <c r="P39" s="36">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2754,7 +2517,7 @@
         <f>46.3+33.9*LOG($D$39)-13.82*LOG(MAX(30,$I$39))+(44.9-6.55*LOG(MAX(30,$I$39)))*POWER((LOG($E$39)),$L$39)-$P$39-$Q$39</f>
         <v>129.11503465523538</v>
       </c>
-      <c r="T39" s="51"/>
+      <c r="T39" s="39"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
@@ -2798,11 +2561,11 @@
         <v>1</v>
       </c>
       <c r="M40" s="6"/>
-      <c r="N40" s="62">
+      <c r="N40" s="43">
         <f>32.4+(20*LOG($D$40))+(10*LOG(POWER($E$40,2)+POWER(($I$40-$H$40),2)/(POWER(10,6))))</f>
         <v>77.651600418352942</v>
       </c>
-      <c r="P40" s="48">
+      <c r="P40" s="36">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2815,7 +2578,7 @@
         <f>32.4+(20*LOG($D$40))+(10*LOG(POWER($E$40,2)+POWER(($I$40-$H$40),2)/(POWER(10,6))))</f>
         <v>77.651600418352942</v>
       </c>
-      <c r="T40" s="51"/>
+      <c r="T40" s="39"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
@@ -2859,11 +2622,11 @@
         <v>1</v>
       </c>
       <c r="M41" s="6"/>
-      <c r="N41" s="62">
+      <c r="N41" s="43">
         <f>32.4+(20*LOG($D$41))+(10*LOG(POWER($E$41,2)+POWER(($I$41-$H$41),2)/(POWER(10,6))))</f>
         <v>70.388501403267725</v>
       </c>
-      <c r="P41" s="48">
+      <c r="P41" s="36">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2876,7 +2639,7 @@
         <f>32.4+(20*LOG($D$41))+(10*LOG(POWER($E$41,2)+POWER(($I$41-$H$41),2)/(POWER(10,6))))</f>
         <v>70.388501403267725</v>
       </c>
-      <c r="T41" s="51"/>
+      <c r="T41" s="39"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
@@ -2920,11 +2683,11 @@
         <v>1</v>
       </c>
       <c r="M42" s="6"/>
-      <c r="N42" s="62">
+      <c r="N42" s="43">
         <f>N41+(LOG($E$42)-LOG(0.04))/(LOG(0.1)-LOG(0.04))*($S$40-$S$41)</f>
         <v>76.816446431868741</v>
       </c>
-      <c r="P42" s="48">
+      <c r="P42" s="36">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2937,7 +2700,7 @@
         <f>S41+(LOG($E$42)-LOG(0.04))/(LOG(0.1)-LOG(0.04))*($S$40-$S$41)</f>
         <v>76.816446431868741</v>
       </c>
-      <c r="T42" s="51"/>
+      <c r="T42" s="39"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
@@ -2981,11 +2744,11 @@
         <v>1</v>
       </c>
       <c r="M43" s="6"/>
-      <c r="N43" s="62">
+      <c r="N43" s="43">
         <f>$S$41+(LOG($E$43)-LOG(0.04))/(LOG(0.1)-LOG(0.04))*($S$40-$S$41)</f>
         <v>76.816446431868741</v>
       </c>
-      <c r="P43" s="48">
+      <c r="P43" s="36">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -2998,7 +2761,7 @@
         <f>$S$41+(LOG($E$43)-LOG(0.04))/(LOG(0.1)-LOG(0.04))*($S$40-$S$41)</f>
         <v>76.816446431868741</v>
       </c>
-      <c r="T43" s="51"/>
+      <c r="T43" s="39"/>
     </row>
     <row r="44" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
@@ -3042,11 +2805,11 @@
         <v>1</v>
       </c>
       <c r="M44" s="21"/>
-      <c r="N44" s="64">
+      <c r="N44" s="44">
         <f>46.3+33.9*LOG($D$44)-13.82*LOG(MAX(30,$I$44))+(44.9-6.55*LOG(MAX(30,$I$44)))*POWER((LOG($E$44)),$L$44)-$P$44-$Q$44</f>
         <v>164.33989043682161</v>
       </c>
-      <c r="P44" s="48">
+      <c r="P44" s="36">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -3059,7 +2822,7 @@
         <f>46.3+33.9*LOG($D$44)-13.82*LOG(MAX(30,$I$44))+(44.9-6.55*LOG(MAX(30,$I$44)))*POWER((LOG($E$44)),$L$44)-$P$44-$Q$44</f>
         <v>164.33989043682161</v>
       </c>
-      <c r="T44" s="51"/>
+      <c r="T44" s="39"/>
     </row>
     <row r="45" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -3103,11 +2866,11 @@
         <v>1</v>
       </c>
       <c r="M45" s="6"/>
-      <c r="N45" s="62">
+      <c r="N45" s="43">
         <f>$S$44-4.78*POWER(LOG(   MIN( MAX(150, $D$45),2000)),2)+18.33*LOG(MIN(MAX(150,$D$45),2000))-40.94</f>
         <v>132.41633584110338</v>
       </c>
-      <c r="P45" s="48">
+      <c r="P45" s="36">
         <f t="shared" si="6"/>
         <v>4.2974525459298363E-2</v>
       </c>
@@ -3120,7 +2883,7 @@
         <f>$S$44-4.78*POWER(LOG(   MIN( MAX(150, $D$45),2000)),2)+18.33*LOG(MIN(MAX(150,$D$45),2000))-40.94</f>
         <v>132.41633584110338</v>
       </c>
-      <c r="T45" s="51"/>
+      <c r="T45" s="39"/>
     </row>
     <row r="46" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
@@ -3164,11 +2927,11 @@
         <v>1</v>
       </c>
       <c r="M46" s="26"/>
-      <c r="N46" s="62">
+      <c r="N46" s="43">
         <f>69.6+26.2*LOG($D$46)-13.82*LOG(MAX(30,$I$46))+(44.9-6.55*LOG(MAX(30,$I$46)))*POWER(LOG($E$46),$L$46)-$P$46-$Q$46</f>
         <v>173.07211323044163</v>
       </c>
-      <c r="P46" s="48">
+      <c r="P46" s="36">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
@@ -3181,7 +2944,7 @@
         <f>69.6+26.2*LOG($D$46)-13.82*LOG(MAX(30,$I$46))+(44.9-6.55*LOG(MAX(30,$I$46)))*POWER(LOG($E$46),$L$46)-$P$46-$Q$46</f>
         <v>173.07211323044163</v>
       </c>
-      <c r="T46" s="51"/>
+      <c r="T46" s="39"/>
     </row>
     <row r="47" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
@@ -3225,11 +2988,11 @@
         <v>1</v>
       </c>
       <c r="M47" s="26"/>
-      <c r="N47" s="62">
+      <c r="N47" s="43">
         <f>$S$46-4.78*POWER(LOG(   MIN( MAX(150, $D$47),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$47),2000))-40.94</f>
         <v>145.59065424604259</v>
       </c>
-      <c r="P47" s="48">
+      <c r="P47" s="36">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
@@ -3242,7 +3005,7 @@
         <f>$S$46-4.78*POWER(LOG(   MIN( MAX(150, $D$47),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$47),2000))-40.94</f>
         <v>145.59065424604259</v>
       </c>
-      <c r="T47" s="51"/>
+      <c r="T47" s="39"/>
     </row>
     <row r="48" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
@@ -3287,11 +3050,11 @@
         <f>1+(0.14+0.000187*$D48+0.00107*$I48)*POWER(LOG($E48/20),0.8)</f>
         <v>1.0133881968090026</v>
       </c>
-      <c r="N48" s="62">
+      <c r="N48" s="43">
         <f>69.6+26.2*LOG($D$48)-13.82*LOG(MAX(30,$I$48))+(44.9-6.55*LOG(MAX(30,$I$48)))*POWER(LOG($E$48),$R$48)-$P$48-$Q$48</f>
         <v>173.99299545055089</v>
       </c>
-      <c r="P48" s="48">
+      <c r="P48" s="36">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
@@ -3307,7 +3070,7 @@
         <f>69.6+26.2*LOG($D$48)-13.82*LOG(MAX(30,$I$48))+(44.9-6.55*LOG(MAX(30,$I$48)))*POWER(LOG($E$48),$R$48)-$P$48-$Q$48</f>
         <v>173.99299545055089</v>
       </c>
-      <c r="T48" s="51"/>
+      <c r="T48" s="39"/>
     </row>
     <row r="49" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
@@ -3352,11 +3115,11 @@
         <f t="shared" ref="M49:M53" si="8">1+(0.14+0.000187*$D49+0.00107*$I49)*POWER(LOG($E49/20),0.8)</f>
         <v>1.0133881968090026</v>
       </c>
-      <c r="N49" s="62">
+      <c r="N49" s="43">
         <f>$S$48-4.78*POWER(LOG(   MIN( MAX(150, $D$49),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$49),2000))-40.94</f>
         <v>146.51153646615185</v>
       </c>
-      <c r="P49" s="48">
+      <c r="P49" s="36">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
@@ -3372,7 +3135,7 @@
         <f>$S$48-4.78*POWER(LOG(   MIN( MAX(150, $D$49),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$49),2000))-40.94</f>
         <v>146.51153646615185</v>
       </c>
-      <c r="T49" s="51"/>
+      <c r="T49" s="39"/>
     </row>
     <row r="50" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
@@ -3417,11 +3180,11 @@
         <f t="shared" si="8"/>
         <v>1.0451776604355734</v>
       </c>
-      <c r="N50" s="62">
+      <c r="N50" s="43">
         <f>69.6+26.2*LOG($D$50)-13.82*LOG(MAX(30,$I$50))+(44.9-6.55*LOG(MAX(30,$I$50)))*POWER(LOG($E$50),$R$50)-$P$50-$Q$50</f>
         <v>177.23667937644004</v>
       </c>
-      <c r="P50" s="48">
+      <c r="P50" s="36">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
@@ -3437,7 +3200,7 @@
         <f>69.6+26.2*LOG($D$50)-13.82*LOG(MAX(30,$I$50))+(44.9-6.55*LOG(MAX(30,$I$50)))*POWER(LOG($E$50),$R$50)-$P$50-$Q$50</f>
         <v>177.23667937644004</v>
       </c>
-      <c r="T50" s="51"/>
+      <c r="T50" s="39"/>
     </row>
     <row r="51" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
@@ -3482,11 +3245,11 @@
         <f t="shared" si="8"/>
         <v>1.0451776604355734</v>
       </c>
-      <c r="N51" s="62">
+      <c r="N51" s="43">
         <f>$S$50-4.78*POWER(LOG(   MIN( MAX(150, $D$51),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$51),2000))-40.94</f>
         <v>149.755220392041</v>
       </c>
-      <c r="P51" s="48">
+      <c r="P51" s="36">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
@@ -3502,7 +3265,7 @@
         <f>$S$50-4.78*POWER(LOG(   MIN( MAX(150, $D$51),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$51),2000))-40.94</f>
         <v>149.755220392041</v>
       </c>
-      <c r="T51" s="51"/>
+      <c r="T51" s="39"/>
     </row>
     <row r="52" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
@@ -3547,11 +3310,11 @@
         <f t="shared" si="8"/>
         <v>1.1398565785362531</v>
       </c>
-      <c r="N52" s="62">
+      <c r="N52" s="43">
         <f>69.6+26.2*LOG($D$52)-13.82*LOG(MAX(30,$I$52))+(44.9-6.55*LOG(MAX(30,$I$52)))*POWER(LOG($E$52),$R$52)-$P$52-$Q$52</f>
         <v>191.69426118849938</v>
       </c>
-      <c r="P52" s="48">
+      <c r="P52" s="36">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
@@ -3567,7 +3330,7 @@
         <f>69.6+26.2*LOG($D$52)-13.82*LOG(MAX(30,$I$52))+(44.9-6.55*LOG(MAX(30,$I$52)))*POWER(LOG($E$52),$R$52)-$P$52-$Q$52</f>
         <v>191.69426118849938</v>
       </c>
-      <c r="T52" s="51"/>
+      <c r="T52" s="39"/>
     </row>
     <row r="53" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
@@ -3599,11 +3362,11 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J53" s="50">
+      <c r="J53" s="38">
         <f t="shared" si="4"/>
         <v>6.0588236012835139E-3</v>
       </c>
-      <c r="K53" s="50">
+      <c r="K53" s="38">
         <f t="shared" si="5"/>
         <v>-3.5218251811136252</v>
       </c>
@@ -3612,15 +3375,15 @@
         <f t="shared" si="8"/>
         <v>1.1398565785362531</v>
       </c>
-      <c r="N53" s="65">
+      <c r="N53" s="45">
         <f>$S$52-4.78*POWER(LOG(   MIN( MAX(150, $D$53),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$53),2000))-40.94</f>
         <v>164.21280220410034</v>
       </c>
-      <c r="P53" s="49">
+      <c r="P53" s="37">
         <f t="shared" si="6"/>
         <v>6.0588236012835139E-3</v>
       </c>
-      <c r="Q53" s="50">
+      <c r="Q53" s="38">
         <f t="shared" si="7"/>
         <v>-3.5218251811136252</v>
       </c>
@@ -3632,672 +3395,173 @@
         <f>$S$52-4.78*POWER(LOG(   MIN( MAX(150, $D$53),2000) ),2)+18.33*LOG(MIN(MAX(150,$D$53),2000))-40.94</f>
         <v>164.21280220410034</v>
       </c>
-      <c r="T53" s="51"/>
+      <c r="T53" s="39"/>
     </row>
     <row r="54" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="52"/>
-      <c r="P54" s="16"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="43"/>
+      <c r="P54" s="36"/>
       <c r="Q54" s="16"/>
-      <c r="R54" s="26"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="51"/>
-    </row>
-    <row r="55" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-    </row>
-    <row r="56" spans="1:20" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="33" t="s">
+      <c r="R54" s="16"/>
+      <c r="S54" s="17"/>
+    </row>
+    <row r="55" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+    </row>
+    <row r="56" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="I56" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="J56" s="33" t="s">
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="B57" s="6">
+        <v>500</v>
+      </c>
+      <c r="C57" s="33">
+        <f>SQRT(POWER(B57,2)+POWER((D57-E57),2))</f>
+        <v>501.12099337385575</v>
+      </c>
+      <c r="D57" s="6">
+        <v>35</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F57" s="7">
+        <f>32.4+20*LOG10(A57)+30*LOG10(C57)</f>
+        <v>124.27963879538905</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C58" s="33">
+        <f>SQRT(POWER(B58,2)+POWER((D58-E58),2))</f>
+        <v>1000.4060425647178</v>
+      </c>
+      <c r="D58" s="6">
         <v>30</v>
       </c>
-      <c r="K56" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="L56" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="N56" s="13"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="35">
-        <f>4*G57*M57*E57/(300000000)</f>
-        <v>700</v>
-      </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="37">
-        <f>22*LOG10(F57)+28+20*LOG10(E57/1000000000)</f>
-        <v>98.258700982397926</v>
-      </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="39">
-        <v>3500000000</v>
-      </c>
-      <c r="F57" s="36">
-        <v>500</v>
-      </c>
-      <c r="G57" s="36">
-        <v>10</v>
-      </c>
-      <c r="H57" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="I57" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="J57" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K57" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="L57" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M57" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="N57" s="23"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="35">
-        <f>4*G58*M58*E58/(300000000)</f>
-        <v>700</v>
-      </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="37">
-        <f>40*LOG10(F58)+7.8-18*LOG10(G58)-18*LOG10(M58)+2*LOG10(E58/1000000000)</f>
-        <v>107.71849342569828</v>
-      </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="39">
-        <v>3500000000</v>
-      </c>
-      <c r="F58" s="36">
-        <v>1000</v>
-      </c>
-      <c r="G58" s="36">
-        <v>10</v>
-      </c>
-      <c r="H58" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="I58" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="J58" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K58" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="L58" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M58" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="N58" s="23"/>
+      <c r="E58" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F58" s="7">
+        <f>32.4+20*LOG10(A58)+30*LOG10(C58)</f>
+        <v>133.28665007461876</v>
+      </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="37">
-        <f>(36.7*LOG10(F59)+22.7+26*LOG10(E59/1000000000))</f>
-        <v>175.50392004218691</v>
-      </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="39">
-        <v>3500000000</v>
-      </c>
-      <c r="F59" s="36">
-        <v>6000</v>
-      </c>
-      <c r="G59" s="36">
-        <v>10</v>
-      </c>
-      <c r="H59" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="I59" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="J59" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K59" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="L59" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M59" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="N59" s="23"/>
+      <c r="A59" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="B59" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C59" s="33">
+        <f>SQRT(POWER(B59,2)+POWER((D59-E59),2))</f>
+        <v>5000.0812243402606</v>
+      </c>
+      <c r="D59" s="6">
+        <v>30</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F59" s="7">
+        <f>32.4+20*LOG10(A59)+30*LOG10(C59)</f>
+        <v>154.25067266706358</v>
+      </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="35">
-        <f t="shared" ref="A60:A68" si="10">4*G60*M60*E60/(300000000)</f>
-        <v>1750</v>
-      </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="37">
-        <f>22*LOG10(F60)+28+20*LOG10(E60/1000000000)</f>
-        <v>98.258700982397926</v>
-      </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="39">
-        <v>3500000000</v>
-      </c>
-      <c r="F60" s="36">
-        <v>500</v>
-      </c>
-      <c r="G60" s="36">
-        <v>25</v>
-      </c>
-      <c r="H60" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I60" s="36">
-        <v>20</v>
-      </c>
-      <c r="J60" s="36">
-        <v>20</v>
-      </c>
-      <c r="K60" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="L60" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M60" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="N60" s="23"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="35">
-        <f t="shared" si="10"/>
-        <v>1750</v>
-      </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="37">
-        <f>40*LOG10(F61)+7.8-18*LOG10(G61)-18*LOG10(M61)+2*LOG10(E61/1000000000)</f>
-        <v>112.59677309616087</v>
-      </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="39">
-        <v>3500000000</v>
-      </c>
-      <c r="F61" s="36">
-        <v>2000</v>
-      </c>
-      <c r="G61" s="36">
-        <v>25</v>
-      </c>
-      <c r="H61" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I61" s="36">
-        <v>20</v>
-      </c>
-      <c r="J61" s="36">
-        <v>20</v>
-      </c>
-      <c r="K61" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="L61" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M61" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="N61" s="23"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="35">
-        <f t="shared" si="10"/>
-        <v>1750</v>
-      </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="37">
-        <f>161.04-7.1*LOG10(J62)+7.5*LOG10(I62)-(24.37-3.7*(I62/G62)^2)*LOG10(G62)+(43.42-3.1*LOG10(G62))*(LOG10(F62)-3)+20*LOG10(E62/1000000000)-(3.2*(LOG10(11.75*M62))^2-4.97)</f>
-        <v>141.68521586142342</v>
-      </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="39">
-        <v>3500000000</v>
-      </c>
-      <c r="F62" s="36">
-        <v>1000</v>
-      </c>
-      <c r="G62" s="36">
-        <v>25</v>
-      </c>
-      <c r="H62" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I62" s="36">
-        <v>20</v>
-      </c>
-      <c r="J62" s="36">
-        <v>20</v>
-      </c>
-      <c r="K62" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="L62" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M62" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="N62" s="23"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="35">
-        <f t="shared" si="10"/>
-        <v>2450</v>
-      </c>
-      <c r="B63" s="38">
-        <f>2*PI()*G63*M63*E63/(300000000)</f>
-        <v>3848.4510006474966</v>
-      </c>
-      <c r="C63" s="37">
-        <f>20*LOG10(40*PI()*F63*(E63/1000000000)/3)+MIN(0.03*I63^1.72, 10)*LOG10(F63)-MIN(0.044*I63^1.72,14.77)+0.002*LOG10(I63)*F63</f>
-        <v>107.73724739020315</v>
-      </c>
-      <c r="D63" s="38"/>
-      <c r="E63" s="39">
-        <v>3500000000</v>
-      </c>
-      <c r="F63" s="36">
-        <v>1000</v>
-      </c>
-      <c r="G63" s="36">
-        <v>35</v>
-      </c>
-      <c r="H63" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I63" s="36">
-        <v>10</v>
-      </c>
-      <c r="J63" s="36">
-        <v>20</v>
-      </c>
-      <c r="K63" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="L63" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M63" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="N63" s="23"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="35">
-        <f t="shared" si="10"/>
-        <v>2450</v>
-      </c>
-      <c r="B64" s="38">
-        <f>2*PI()*G64*M64*E64/(300000000)</f>
-        <v>3848.4510006474966</v>
-      </c>
-      <c r="C64" s="37">
-        <f>(20*LOG10(40*PI()*B64*(E64/1000000000)/3)+MIN(0.03*I64^1.72, 10)*LOG10(B64)-MIN(0.044*I64^1.72,14.77)+0.002*LOG10(I64)*B64)</f>
-        <v>126.06135593614999</v>
-      </c>
-      <c r="D64" s="37">
-        <f>C64+40*LOG10(F64/B64)</f>
-        <v>126.73231713348109</v>
-      </c>
-      <c r="E64" s="39">
-        <v>3500000000</v>
-      </c>
-      <c r="F64" s="36">
-        <v>4000</v>
-      </c>
-      <c r="G64" s="36">
-        <v>35</v>
-      </c>
-      <c r="H64" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I64" s="36">
-        <v>10</v>
-      </c>
-      <c r="J64" s="36">
-        <v>20</v>
-      </c>
-      <c r="K64" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="L64" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M64" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="N64" s="23"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="35">
-        <f t="shared" si="10"/>
-        <v>2450</v>
-      </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="37">
-        <f>161.04-7.1*LOG10(J65)+7.5*LOG10(I65)-(24.37-3.7*(I65/G65)^2)*LOG10(G65)+(43.42-3.1*LOG10(G65))*(LOG10(F65)-3)+20*LOG10(E65/1000000000)-(3.2*(LOG10(11.75*M65))^2-4.97)</f>
-        <v>121.39259135453526</v>
-      </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="39">
-        <v>3500000000</v>
-      </c>
-      <c r="F65" s="36">
-        <v>500</v>
-      </c>
-      <c r="G65" s="36">
-        <v>35</v>
-      </c>
-      <c r="H65" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I65" s="36">
-        <v>10</v>
-      </c>
-      <c r="J65" s="36">
-        <v>20</v>
-      </c>
-      <c r="K65" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="L65" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M65" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="N65" s="23"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="35">
-        <f t="shared" si="10"/>
-        <v>2450</v>
-      </c>
-      <c r="B66" s="38">
-        <f>2*PI()*G66*M66*E66/(300000000)</f>
-        <v>3848.4510006474966</v>
-      </c>
-      <c r="C66" s="37">
-        <f>20*LOG10(40*PI()*F66*(E66/1000000000)/3)+MIN(0.03*I66^1.72, 10)*LOG10(F66)-MIN(0.044*I66^1.72,14.77)+0.002*LOG10(I66)*F66</f>
-        <v>107.73724739020315</v>
-      </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="39">
-        <v>3500000000</v>
-      </c>
-      <c r="F66" s="36">
-        <v>1000</v>
-      </c>
-      <c r="G66" s="36">
-        <v>35</v>
-      </c>
-      <c r="H66" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I66" s="36">
-        <v>10</v>
-      </c>
-      <c r="J66" s="36">
-        <v>20</v>
-      </c>
-      <c r="K66" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="L66" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M66" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="N66" s="23"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="35">
-        <f t="shared" si="10"/>
-        <v>2450</v>
-      </c>
-      <c r="B67" s="38">
-        <f>2*PI()*G67*M67*E67/(300000000)</f>
-        <v>3848.4510006474966</v>
-      </c>
-      <c r="C67" s="37">
-        <f>(20*LOG10(40*PI()*B67*(E67/1000000000)/3)+MIN(0.03*I67^1.72, 10)*LOG10(B67)-MIN(0.044*I67^1.72,14.77)+0.002*LOG10(I67)*B67)</f>
-        <v>126.06135593614999</v>
-      </c>
-      <c r="D67" s="37">
-        <f>C67+40*LOG10(F67/B67)</f>
-        <v>126.73231713348109</v>
-      </c>
-      <c r="E67" s="39">
-        <v>3500000000</v>
-      </c>
-      <c r="F67" s="36">
-        <v>4000</v>
-      </c>
-      <c r="G67" s="36">
-        <v>35</v>
-      </c>
-      <c r="H67" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I67" s="36">
-        <v>10</v>
-      </c>
-      <c r="J67" s="36">
-        <v>20</v>
-      </c>
-      <c r="K67" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="L67" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M67" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="N67" s="23"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="35">
-        <f t="shared" si="10"/>
-        <v>2450</v>
-      </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="37">
-        <f>161.04-7.1*LOG10(J68)+7.5*LOG10(I68)-(24.37-3.7*(I68/G68)^2)*LOG10(G68)+(43.42-3.1*LOG10(G68))*(LOG10(F68)-3)+20*LOG10(E68/1000000000)-(3.2*(LOG10(11.75*M68))^2-4.97)</f>
-        <v>121.39259135453526</v>
-      </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="39">
-        <v>3500000000</v>
-      </c>
-      <c r="F68" s="36">
-        <v>500</v>
-      </c>
-      <c r="G68" s="36">
-        <v>35</v>
-      </c>
-      <c r="H68" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I68" s="36">
-        <v>10</v>
-      </c>
-      <c r="J68" s="36">
-        <v>20</v>
-      </c>
-      <c r="K68" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="L68" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M68" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="N68" s="23"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="35">
-        <f t="shared" ref="A69" si="11">4*G69*M69*E69/(300000000)</f>
-        <v>2450</v>
-      </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="37">
-        <f>161.04-7.1*LOG10(J69)+7.5*LOG10(I69)-(24.37-3.7*(I69/G69)^2)*LOG10(G69)+(43.42-3.1*LOG10(G69))*(LOG10(F69)-3)+20*LOG10(E69/1000000000)-(3.2*(LOG10(11.75*M69))^2-4.97)</f>
-        <v>121.39259135453526</v>
-      </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="39">
-        <v>3500000000</v>
-      </c>
-      <c r="F69" s="36">
-        <v>500</v>
-      </c>
-      <c r="G69" s="36">
-        <v>35</v>
-      </c>
-      <c r="H69" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I69" s="36">
-        <v>10</v>
-      </c>
-      <c r="J69" s="36">
-        <v>20</v>
-      </c>
-      <c r="K69" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="L69" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M69" s="40">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="42">
-        <f t="shared" ref="A70" si="12">4*G70*M70*E70/(300000000)</f>
-        <v>2800</v>
-      </c>
-      <c r="B70" s="43"/>
-      <c r="C70" s="44">
-        <f>161.04-7.1*LOG10(J70)+7.5*LOG10(I70)-(24.37-3.7*(I70/G70)^2)*LOG10(G70)+(43.42-3.1*LOG10(G70))*(LOG10(F70)-3)+20*LOG10(E70/1000000000)-(3.2*(LOG10(11.75*M70))^2-4.97)</f>
-        <v>119.9375500853008</v>
-      </c>
-      <c r="D70" s="44"/>
-      <c r="E70" s="45">
-        <v>3500000000</v>
-      </c>
-      <c r="F70" s="43">
-        <v>500</v>
-      </c>
-      <c r="G70" s="43">
-        <v>40</v>
-      </c>
-      <c r="H70" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="I70" s="43">
-        <v>10</v>
-      </c>
-      <c r="J70" s="43">
-        <v>20</v>
-      </c>
-      <c r="K70" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="L70" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="M70" s="46">
-        <v>1.5</v>
+      <c r="A60" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="B60" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C60" s="33">
+        <f>SQRT(POWER(B60,2)+POWER((D60-E60),2))</f>
+        <v>10000.040612417532</v>
+      </c>
+      <c r="D60" s="6">
+        <v>30</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F60" s="7">
+        <f>32.4+20*LOG10(A60)+30*LOG10(C60)</f>
+        <v>163.28141380014455</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="48">
+        <v>3.5</v>
+      </c>
+      <c r="B61" s="42">
+        <v>20000</v>
+      </c>
+      <c r="C61" s="34">
+        <f>SQRT(POWER(B61,2)+POWER((D61-E61),2))</f>
+        <v>20000.02030623969</v>
+      </c>
+      <c r="D61" s="42">
+        <v>30</v>
+      </c>
+      <c r="E61" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F61" s="12">
+        <f>32.4+20*LOG10(A61)+30*LOG10(C61)</f>
+        <v>172.31227398525002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A55:M55"/>
+  <mergeCells count="3">
     <mergeCell ref="A20:N20"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="A55:E55"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E19">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4311,7 +3575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K18">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4325,7 +3589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N53">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4338,22 +3602,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C68">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1D9E106F-ABDB-4C45-8973-56B92EA94E10}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S18 S4:S5 S8:S9">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="F58:F59 S12:S18 S9">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4366,8 +3616,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="F60">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4380,8 +3630,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="F61">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4394,7 +3644,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
+  <conditionalFormatting sqref="F57">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -4403,12 +3653,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7F6CFAD9-4C05-45C5-9E69-1064E25BC763}</x14:id>
+          <x14:id>{5201A4BE-B589-4E0E-8F56-8E8342B0A9F8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
+  <conditionalFormatting sqref="N54">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -4417,7 +3667,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5A4C893D-8491-447A-8C13-30C518070E92}</x14:id>
+          <x14:id>{B3F5759C-7753-49CF-ACA2-AF7DD8155486}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4463,19 +3713,6 @@
           <xm:sqref>N22:N53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1D9E106F-ABDB-4C45-8973-56B92EA94E10}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C57:C68</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4232E29B-9545-42B7-AE12-3189426569B4}">
             <x14:dataBar>
               <x14:cfvo type="autoMin"/>
@@ -4484,7 +3721,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S12:S18 S4:S5 S8:S9</xm:sqref>
+          <xm:sqref>F58:F59 S12:S18 S9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F119C0E7-7884-4948-ACB4-B08A2294EA82}">
@@ -4495,7 +3732,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S6</xm:sqref>
+          <xm:sqref>F60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A76E5B64-EC84-4773-B866-843530173059}">
@@ -4506,10 +3743,21 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S7</xm:sqref>
+          <xm:sqref>F61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7F6CFAD9-4C05-45C5-9E69-1064E25BC763}">
+          <x14:cfRule type="dataBar" id="{5201A4BE-B589-4E0E-8F56-8E8342B0A9F8}">
+            <x14:dataBar>
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B3F5759C-7753-49CF-ACA2-AF7DD8155486}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4519,20 +3767,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C69</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5A4C893D-8491-447A-8C13-30C518070E92}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C70</xm:sqref>
+          <xm:sqref>N54</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
